--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>293.0549218742509</v>
+        <v>379.3032589745142</v>
       </c>
       <c r="AB2" t="n">
-        <v>400.9706727790445</v>
+        <v>518.9794526077135</v>
       </c>
       <c r="AC2" t="n">
-        <v>362.7025945348855</v>
+        <v>469.4487820430691</v>
       </c>
       <c r="AD2" t="n">
-        <v>293054.9218742509</v>
+        <v>379303.2589745142</v>
       </c>
       <c r="AE2" t="n">
-        <v>400970.6727790445</v>
+        <v>518979.4526077135</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.633228684316785e-06</v>
+        <v>2.354567674460753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.60677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>362702.5945348855</v>
+        <v>469448.7820430691</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.9226902686955</v>
+        <v>283.9042917779944</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.0667065454013</v>
+        <v>388.450376984038</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.0013927980097</v>
+        <v>351.3772181982089</v>
       </c>
       <c r="AD3" t="n">
-        <v>214922.6902686955</v>
+        <v>283904.2917779944</v>
       </c>
       <c r="AE3" t="n">
-        <v>294066.7065454013</v>
+        <v>388450.376984038</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.059841433359358e-06</v>
+        <v>2.969600093407448e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.75260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>266001.3927980097</v>
+        <v>351377.2181982089</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.9509409058059</v>
+        <v>252.3845154741895</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.6357456250548</v>
+        <v>345.3236284906189</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.5701586742603</v>
+        <v>312.3664260523338</v>
       </c>
       <c r="AD4" t="n">
-        <v>191950.9409058059</v>
+        <v>252384.5154741895</v>
       </c>
       <c r="AE4" t="n">
-        <v>262635.7456250548</v>
+        <v>345323.628490619</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.223115284623395e-06</v>
+        <v>3.204986194547248e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>237570.1586742603</v>
+        <v>312366.4260523338</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>189.487944515435</v>
+        <v>249.7509268832265</v>
       </c>
       <c r="AB5" t="n">
-        <v>259.2657653040192</v>
+        <v>341.7202363947366</v>
       </c>
       <c r="AC5" t="n">
-        <v>234.5218045452662</v>
+        <v>309.1069366406887</v>
       </c>
       <c r="AD5" t="n">
-        <v>189487.944515435</v>
+        <v>249750.9268832265</v>
       </c>
       <c r="AE5" t="n">
-        <v>259265.7653040192</v>
+        <v>341720.2363947366</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.25490641906537e-06</v>
+        <v>3.250818341759887e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.4765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>234521.8045452662</v>
+        <v>309106.9366406887</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.0674920974876</v>
+        <v>315.7389632379463</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.470933717903</v>
+        <v>432.007978922128</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.1221288158148</v>
+        <v>390.7777437408058</v>
       </c>
       <c r="AD2" t="n">
-        <v>240067.4920974876</v>
+        <v>315738.9632379463</v>
       </c>
       <c r="AE2" t="n">
-        <v>328470.933717903</v>
+        <v>432007.978922128</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.898274257432964e-06</v>
+        <v>2.779002101792046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>297122.1288158149</v>
+        <v>390777.7437408058</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.6415500550145</v>
+        <v>243.5635149400349</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.6347145954414</v>
+        <v>333.2543464047163</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.5236120095748</v>
+        <v>301.4490193093621</v>
       </c>
       <c r="AD3" t="n">
-        <v>184641.5500550145</v>
+        <v>243563.5149400349</v>
       </c>
       <c r="AE3" t="n">
-        <v>252634.7145954414</v>
+        <v>333254.3464047163</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.288215502529764e-06</v>
+        <v>3.349861415432441e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.73697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>228523.6120095748</v>
+        <v>301449.0193093621</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.4044692046842</v>
+        <v>238.1558418891124</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.4691095323222</v>
+        <v>325.8553295667502</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.0418822366875</v>
+        <v>294.7561542538238</v>
       </c>
       <c r="AD4" t="n">
-        <v>179404.4692046842</v>
+        <v>238155.8418891124</v>
       </c>
       <c r="AE4" t="n">
-        <v>245469.1095323222</v>
+        <v>325855.3295667502</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.355753161984575e-06</v>
+        <v>3.448734008178258e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.34635416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>222041.8822366875</v>
+        <v>294756.1542538238</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.4426352599662</v>
+        <v>210.8136563996445</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.0517153245553</v>
+        <v>288.4445451279881</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.6229200375103</v>
+        <v>260.9158025755195</v>
       </c>
       <c r="AD2" t="n">
-        <v>156442.6352599662</v>
+        <v>210813.6563996444</v>
       </c>
       <c r="AE2" t="n">
-        <v>214051.7153245553</v>
+        <v>288444.5451279881</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.554931795121665e-06</v>
+        <v>3.952794849732507e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.73697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>193622.9200375103</v>
+        <v>260915.8025755195</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.4079609378754</v>
+        <v>234.4729681740662</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.1056429588331</v>
+        <v>320.8162592729053</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.8085429993345</v>
+        <v>290.1980057564423</v>
       </c>
       <c r="AD2" t="n">
-        <v>178407.9609378754</v>
+        <v>234472.9681740662</v>
       </c>
       <c r="AE2" t="n">
-        <v>244105.6429588331</v>
+        <v>320816.2592729053</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.395324327106982e-06</v>
+        <v>3.620039208013016e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.01041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>220808.5429993345</v>
+        <v>290198.0057564423</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.8152324184502</v>
+        <v>220.7948988000693</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.5074721297051</v>
+        <v>302.1013213215796</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.9853554914358</v>
+        <v>273.2691952166047</v>
       </c>
       <c r="AD3" t="n">
-        <v>164815.2324184502</v>
+        <v>220794.8988000693</v>
       </c>
       <c r="AE3" t="n">
-        <v>225507.4721297051</v>
+        <v>302101.3213215796</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.49879083144918e-06</v>
+        <v>3.776407511960893e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>203985.3554914358</v>
+        <v>273269.1952166047</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.3608237672161</v>
+        <v>211.1872538811829</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.6762654646778</v>
+        <v>288.9557176841864</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.9969867958396</v>
+        <v>261.3781895403897</v>
       </c>
       <c r="AD2" t="n">
-        <v>158360.8237672161</v>
+        <v>211187.2538811829</v>
       </c>
       <c r="AE2" t="n">
-        <v>216676.2654646778</v>
+        <v>288955.7176841864</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.549888581306707e-06</v>
+        <v>4.030068279466806e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.28385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>195996.9867958396</v>
+        <v>261378.1895403897</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.3636793567752</v>
+        <v>325.1572300848521</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.1363401799765</v>
+        <v>444.894467126673</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.5289420997623</v>
+        <v>402.4343635974089</v>
       </c>
       <c r="AD2" t="n">
-        <v>257363.6793567752</v>
+        <v>325157.2300848521</v>
       </c>
       <c r="AE2" t="n">
-        <v>352136.3401799765</v>
+        <v>444894.467126673</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.8251073826535e-06</v>
+        <v>2.660799028956183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.0703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>318528.9420997623</v>
+        <v>402434.3635974089</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.8578175784496</v>
+        <v>257.4805970888281</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.7718419464833</v>
+        <v>352.2963121790175</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.9795819432568</v>
+        <v>318.6736465957368</v>
       </c>
       <c r="AD3" t="n">
-        <v>189857.8175784496</v>
+        <v>257480.597088828</v>
       </c>
       <c r="AE3" t="n">
-        <v>259771.8419464833</v>
+        <v>352296.3121790175</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.226166773413598e-06</v>
+        <v>3.245498015783319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.99739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>234979.5819432568</v>
+        <v>318673.6465957368</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.3249215821326</v>
+        <v>241.4736079486219</v>
       </c>
       <c r="AB4" t="n">
-        <v>249.4650013164107</v>
+        <v>330.3948434588771</v>
       </c>
       <c r="AC4" t="n">
-        <v>225.6564117171733</v>
+        <v>298.8624233113352</v>
       </c>
       <c r="AD4" t="n">
-        <v>182324.9215821326</v>
+        <v>241473.6079486219</v>
       </c>
       <c r="AE4" t="n">
-        <v>249465.0013164107</v>
+        <v>330394.8434588771</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.324445467796158e-06</v>
+        <v>3.388777176815481e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.3984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>225656.4117171734</v>
+        <v>298862.4233113353</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.225580633112</v>
+        <v>214.6231356268899</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.3864874914336</v>
+        <v>293.6568426690651</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.1166192116192</v>
+        <v>265.6306457547834</v>
       </c>
       <c r="AD2" t="n">
-        <v>155225.580633112</v>
+        <v>214623.1356268899</v>
       </c>
       <c r="AE2" t="n">
-        <v>212386.4874914336</v>
+        <v>293656.8426690651</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.515777899881597e-06</v>
+        <v>4.030867145997294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.81770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>192116.6192116192</v>
+        <v>265630.6457547834</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.2914977960836</v>
+        <v>273.9866081712771</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.9936164568133</v>
+        <v>374.8805647360065</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.7942256933118</v>
+        <v>339.1024897857785</v>
       </c>
       <c r="AD2" t="n">
-        <v>208291.4977960836</v>
+        <v>273986.6081712771</v>
       </c>
       <c r="AE2" t="n">
-        <v>284993.6164568133</v>
+        <v>374880.5647360065</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.12978494006773e-06</v>
+        <v>3.16239667960837e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.20833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>257794.2256933117</v>
+        <v>339102.4897857785</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.3500067167474</v>
+        <v>229.8119042699647</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.8168827354118</v>
+        <v>314.4387860076902</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.3108504182859</v>
+        <v>284.4291895888173</v>
       </c>
       <c r="AD3" t="n">
-        <v>172350.0067167474</v>
+        <v>229811.9042699648</v>
       </c>
       <c r="AE3" t="n">
-        <v>235816.8827354118</v>
+        <v>314438.7860076902</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.428399656398365e-06</v>
+        <v>3.60579270971466e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>213310.8504182859</v>
+        <v>284429.1895888173</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.8727239728449</v>
+        <v>299.6555216000008</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.6267345590038</v>
+        <v>410.0019045217236</v>
       </c>
       <c r="AC2" t="n">
-        <v>288.2174462082176</v>
+        <v>370.8718981954566</v>
       </c>
       <c r="AD2" t="n">
-        <v>232872.7239728449</v>
+        <v>299655.5216000008</v>
       </c>
       <c r="AE2" t="n">
-        <v>318626.7345590037</v>
+        <v>410001.9045217236</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.962765145623719e-06</v>
+        <v>2.886133246704555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>288217.4462082176</v>
+        <v>370871.8981954566</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.8531426038618</v>
+        <v>237.1920932547957</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.7147601542643</v>
+        <v>324.5366861676898</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.3595269045353</v>
+        <v>293.5633603300416</v>
       </c>
       <c r="AD3" t="n">
-        <v>178853.1426038618</v>
+        <v>237192.0932547957</v>
       </c>
       <c r="AE3" t="n">
-        <v>244714.7601542643</v>
+        <v>324536.6861676898</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.356678345326645e-06</v>
+        <v>3.465359948642505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>221359.5269045353</v>
+        <v>293563.3603300416</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.461928440943</v>
+        <v>235.8008790918769</v>
       </c>
       <c r="AB4" t="n">
-        <v>242.8112395605227</v>
+        <v>322.6331655739482</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.6376756446518</v>
+        <v>291.8415090701581</v>
       </c>
       <c r="AD4" t="n">
-        <v>177461.928440943</v>
+        <v>235800.8790918769</v>
       </c>
       <c r="AE4" t="n">
-        <v>242811.2395605227</v>
+        <v>322633.1655739482</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.373497658927822e-06</v>
+        <v>3.490091781831687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.37239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>219637.6756446518</v>
+        <v>291841.5090701581</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.7109448694805</v>
+        <v>359.8636503984225</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.8175870970592</v>
+        <v>492.3813225389019</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.9002594864084</v>
+        <v>445.3891401773149</v>
       </c>
       <c r="AD2" t="n">
-        <v>282710.9448694805</v>
+        <v>359863.6503984225</v>
       </c>
       <c r="AE2" t="n">
-        <v>386817.5870970592</v>
+        <v>492381.3225389019</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.700352349691409e-06</v>
+        <v>2.460023031177515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>349900.2594864084</v>
+        <v>445389.1401773149</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.4118588176138</v>
+        <v>269.4005739299001</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.5265438333101</v>
+        <v>368.6057503654028</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.1808526324733</v>
+        <v>333.4265348919479</v>
       </c>
       <c r="AD3" t="n">
-        <v>209411.8588176139</v>
+        <v>269400.5739299001</v>
       </c>
       <c r="AE3" t="n">
-        <v>286526.5438333101</v>
+        <v>368605.7503654028</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.117011494839192e-06</v>
+        <v>3.062834027028055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.46614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>259180.8526324733</v>
+        <v>333426.5348919479</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.0584129413035</v>
+        <v>248.1323793996069</v>
       </c>
       <c r="AB4" t="n">
-        <v>257.3098171378114</v>
+        <v>339.5056683223739</v>
       </c>
       <c r="AC4" t="n">
-        <v>232.7525293268502</v>
+        <v>307.1037238369859</v>
       </c>
       <c r="AD4" t="n">
-        <v>188058.4129413035</v>
+        <v>248132.379399607</v>
       </c>
       <c r="AE4" t="n">
-        <v>257309.8171378114</v>
+        <v>339505.6683223739</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.268626579334778e-06</v>
+        <v>3.282186562872025e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.50260416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>232752.5293268502</v>
+        <v>307103.7238369859</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.2894186238069</v>
+        <v>247.1927928815181</v>
       </c>
       <c r="AB5" t="n">
-        <v>256.2576451869781</v>
+        <v>338.2200845966938</v>
       </c>
       <c r="AC5" t="n">
-        <v>231.8007751902714</v>
+        <v>305.9408344177562</v>
       </c>
       <c r="AD5" t="n">
-        <v>187289.4186238069</v>
+        <v>247192.7928815181</v>
       </c>
       <c r="AE5" t="n">
-        <v>256257.6451869781</v>
+        <v>338220.0845966937</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.277214336293326e-06</v>
+        <v>3.294611093533578e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.45052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>231800.7751902714</v>
+        <v>305940.8344177561</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.6029815731244</v>
+        <v>242.1883948594956</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.9501876138837</v>
+        <v>331.372846444507</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.7135381294154</v>
+        <v>299.7470870646528</v>
       </c>
       <c r="AD2" t="n">
-        <v>185602.9815731244</v>
+        <v>242188.3948594956</v>
       </c>
       <c r="AE2" t="n">
-        <v>253950.1876138837</v>
+        <v>331372.846444507</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.302118624355827e-06</v>
+        <v>3.457056117878132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.40104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>229713.5381294155</v>
+        <v>299747.0870646528</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.1516801266526</v>
+        <v>223.6517525584522</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.7043029608641</v>
+        <v>306.0101946692898</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.8770852748503</v>
+        <v>276.8050111781489</v>
       </c>
       <c r="AD3" t="n">
-        <v>167151.6801266526</v>
+        <v>223651.7525584522</v>
       </c>
       <c r="AE3" t="n">
-        <v>228704.3029608641</v>
+        <v>306010.1946692897</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.478004427505864e-06</v>
+        <v>3.721181122295698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.37239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>206877.0852748503</v>
+        <v>276805.0111781489</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.9693545931759</v>
+        <v>213.9766985377382</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.5088841872409</v>
+        <v>292.7723589248965</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.7501415561092</v>
+        <v>264.8305758977772</v>
       </c>
       <c r="AD2" t="n">
-        <v>158969.3545931759</v>
+        <v>213976.6985377382</v>
       </c>
       <c r="AE2" t="n">
-        <v>217508.8841872409</v>
+        <v>292772.3589248965</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.543423096566028e-06</v>
+        <v>3.90096690538884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>196750.1415561092</v>
+        <v>264830.5758977772</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.4320045970497</v>
+        <v>214.439348541612</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.1419023332183</v>
+        <v>293.4053770708739</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.3227453386813</v>
+        <v>265.4031796803492</v>
       </c>
       <c r="AD3" t="n">
-        <v>159432.0045970496</v>
+        <v>214439.348541612</v>
       </c>
       <c r="AE3" t="n">
-        <v>218141.9023332183</v>
+        <v>293405.3770708739</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.54164662983678e-06</v>
+        <v>3.898242255318359e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.58072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>197322.7453386813</v>
+        <v>265403.1796803492</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.461439625987</v>
+        <v>214.6368386375742</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.9727119370779</v>
+        <v>293.6755917328174</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.9332110084153</v>
+        <v>265.6476054342056</v>
       </c>
       <c r="AD2" t="n">
-        <v>153461.439625987</v>
+        <v>214636.8386375742</v>
       </c>
       <c r="AE2" t="n">
-        <v>209972.7119370779</v>
+        <v>293675.5917328174</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.562237350621803e-06</v>
+        <v>4.003445319278199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.93229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>189933.2110084153</v>
+        <v>265647.6054342056</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.3534886900449</v>
+        <v>217.6875379633617</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.0344734053772</v>
+        <v>297.8496931377134</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.2255692769358</v>
+        <v>269.4233364594078</v>
       </c>
       <c r="AD2" t="n">
-        <v>159353.4886900449</v>
+        <v>217687.5379633617</v>
       </c>
       <c r="AE2" t="n">
-        <v>218034.4734053772</v>
+        <v>297849.6931377134</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.429211387843207e-06</v>
+        <v>3.958827821012174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>197225.5692769358</v>
+        <v>269423.3364594078</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.0984003046253</v>
+        <v>282.4759654183975</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.6753648852259</v>
+        <v>386.4960778455258</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.4565230436481</v>
+        <v>349.6094346266003</v>
       </c>
       <c r="AD2" t="n">
-        <v>216098.4003046253</v>
+        <v>282475.9654183976</v>
       </c>
       <c r="AE2" t="n">
-        <v>295675.3648852258</v>
+        <v>386496.0778455258</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.045433469288968e-06</v>
+        <v>3.021884144958554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.67708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>267456.523043648</v>
+        <v>349609.4346266002</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.2807893618469</v>
+        <v>233.1905666358023</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.8269088474398</v>
+        <v>319.0616209126904</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.9381652662902</v>
+        <v>288.6108276186754</v>
       </c>
       <c r="AD3" t="n">
-        <v>175280.7893618469</v>
+        <v>233190.5666358023</v>
       </c>
       <c r="AE3" t="n">
-        <v>239826.9088474398</v>
+        <v>319061.6209126904</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.394410027997382e-06</v>
+        <v>3.537455414108531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>216938.1652662902</v>
+        <v>288610.8276186754</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.0333962416623</v>
+        <v>232.9431735156177</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.4884146661893</v>
+        <v>318.7231267314399</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.6319764946186</v>
+        <v>288.3046388470037</v>
       </c>
       <c r="AD4" t="n">
-        <v>175033.3962416623</v>
+        <v>232943.1735156177</v>
       </c>
       <c r="AE4" t="n">
-        <v>239488.4146661893</v>
+        <v>318723.12673144</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.404528501763108e-06</v>
+        <v>3.552404253023568e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>216631.9764946186</v>
+        <v>288304.6388470037</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.4927372291165</v>
+        <v>343.2535827954763</v>
       </c>
       <c r="AB2" t="n">
-        <v>364.6271199066895</v>
+        <v>469.6546952600856</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.8276193401711</v>
+        <v>424.8315103089671</v>
       </c>
       <c r="AD2" t="n">
-        <v>266492.7372291166</v>
+        <v>343253.5827954763</v>
       </c>
       <c r="AE2" t="n">
-        <v>364627.1199066895</v>
+        <v>469654.6952600856</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.754399005042462e-06</v>
+        <v>2.547683876172683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>329827.6193401711</v>
+        <v>424831.5103089671</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.4331700405538</v>
+        <v>264.0507985794823</v>
       </c>
       <c r="AB3" t="n">
-        <v>279.7144822042929</v>
+        <v>361.2859517155298</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.0189246045387</v>
+        <v>326.8053275518168</v>
       </c>
       <c r="AD3" t="n">
-        <v>204433.1700405538</v>
+        <v>264050.7985794822</v>
       </c>
       <c r="AE3" t="n">
-        <v>279714.4822042929</v>
+        <v>361285.9517155298</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.164915703711239e-06</v>
+        <v>3.143823506377713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>253018.9246045387</v>
+        <v>326805.3275518168</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>184.4199004572037</v>
+        <v>243.9521881415571</v>
       </c>
       <c r="AB4" t="n">
-        <v>252.3314438372266</v>
+        <v>333.7861462260902</v>
       </c>
       <c r="AC4" t="n">
-        <v>228.2492849868808</v>
+        <v>301.93006490217</v>
       </c>
       <c r="AD4" t="n">
-        <v>184419.9004572037</v>
+        <v>243952.1881415572</v>
       </c>
       <c r="AE4" t="n">
-        <v>252331.4438372266</v>
+        <v>333786.1462260903</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.304079536026949e-06</v>
+        <v>3.345912911762751e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>228249.2849868808</v>
+        <v>301930.06490217</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>184.8023690254416</v>
+        <v>244.3346567097951</v>
       </c>
       <c r="AB5" t="n">
-        <v>252.8547542056118</v>
+        <v>334.3094565944755</v>
       </c>
       <c r="AC5" t="n">
-        <v>228.7226513481782</v>
+        <v>302.4034312634675</v>
       </c>
       <c r="AD5" t="n">
-        <v>184802.3690254416</v>
+        <v>244334.6567097951</v>
       </c>
       <c r="AE5" t="n">
-        <v>252854.7542056118</v>
+        <v>334309.4565944755</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.30284589823622e-06</v>
+        <v>3.344121461186545e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>228722.6513481782</v>
+        <v>302403.4312634675</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.2514374493736</v>
+        <v>242.2071618357021</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.8914806165359</v>
+        <v>331.3985242492933</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.6148200104074</v>
+        <v>299.7703142157893</v>
       </c>
       <c r="AD2" t="n">
-        <v>178251.4374493736</v>
+        <v>242207.1618357021</v>
       </c>
       <c r="AE2" t="n">
-        <v>243891.4806165359</v>
+        <v>331398.5242492933</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.196045599036461e-06</v>
+        <v>3.660677175301243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.07291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>220614.8200104074</v>
+        <v>299770.3142157893</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.2753084324042</v>
+        <v>218.8730952631145</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.4004801953463</v>
+        <v>299.4718249383311</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.0794519101099</v>
+        <v>270.8906542776512</v>
       </c>
       <c r="AD2" t="n">
-        <v>163275.3084324042</v>
+        <v>218873.0952631145</v>
       </c>
       <c r="AE2" t="n">
-        <v>223400.4801953463</v>
+        <v>299471.824938331</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.495376866171188e-06</v>
+        <v>3.797730576317431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.6328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>202079.4519101099</v>
+        <v>270890.6542776512</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.9254876418006</v>
+        <v>217.3526822719188</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.5535958397531</v>
+        <v>297.3915288078909</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.4088316052954</v>
+        <v>269.0088986901857</v>
       </c>
       <c r="AD3" t="n">
-        <v>161925.4876418006</v>
+        <v>217352.6822719188</v>
       </c>
       <c r="AE3" t="n">
-        <v>221553.5958397531</v>
+        <v>297391.528807891</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.528507118367962e-06</v>
+        <v>3.848151726515017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.45052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>200408.8316052954</v>
+        <v>269008.8986901857</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.5934264151503</v>
+        <v>257.8378547848274</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.5148226433997</v>
+        <v>352.7851279197807</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.365337815767</v>
+        <v>319.115810448259</v>
       </c>
       <c r="AD2" t="n">
-        <v>192593.4264151503</v>
+        <v>257837.8547848273</v>
       </c>
       <c r="AE2" t="n">
-        <v>263514.8226433996</v>
+        <v>352785.1279197807</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.214575383163689e-06</v>
+        <v>3.306163272241505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>238365.337815767</v>
+        <v>319115.810448259</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.6901545098453</v>
+        <v>226.6831103804706</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.1775556015325</v>
+        <v>310.1578321754419</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.0188555582351</v>
+        <v>280.556803981961</v>
       </c>
       <c r="AD3" t="n">
-        <v>169690.1545098453</v>
+        <v>226683.1103804706</v>
       </c>
       <c r="AE3" t="n">
-        <v>232177.5556015325</v>
+        <v>310157.8321754419</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.455012839996523e-06</v>
+        <v>3.66511492279054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.34635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>210018.8555582351</v>
+        <v>280556.803981961</v>
       </c>
     </row>
   </sheetData>
